--- a/input/images/CodexRTDataDictionary-STU1.xlsx
+++ b/input/images/CodexRTDataDictionary-STU1.xlsx
@@ -51,7 +51,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>4/24/2023, 3:52:32 PM</t>
+    <t>4/28/2023, 2:56:30 PM</t>
   </si>
   <si>
     <t># Profiles</t>
@@ -6886,28 +6886,28 @@
     <t>http://hl7.org/fhir/us/codex-radiation-therapy/CodeSystem/snomed-requested-cs</t>
   </si>
   <si>
-    <t>USCRS-2023-4_4</t>
-  </si>
-  <si>
-    <t>Radiotherapy with respiratory gating (procedure)</t>
-  </si>
-  <si>
-    <t>USCRS-2023-4_5</t>
-  </si>
-  <si>
-    <t>Radiotherapy with respiratory tracking (procedure)</t>
-  </si>
-  <si>
-    <t>USCRS-2023-4_6</t>
-  </si>
-  <si>
-    <t>Radiotherapy with ITV to account for respiratory motion (procedure)</t>
-  </si>
-  <si>
-    <t>USCRS-2023-4_7</t>
-  </si>
-  <si>
-    <t>Radiotherapy with compression to reduce respiratory motion (procedure)</t>
+    <t>USCRS-34878</t>
+  </si>
+  <si>
+    <t>Radiotherapy with real-time tumor tracking (regime/therapy)</t>
+  </si>
+  <si>
+    <t>USCRS-34880</t>
+  </si>
+  <si>
+    <t>Radiotherapy with (ITV) Internal Target Volume creation</t>
+  </si>
+  <si>
+    <t>USCRS-34881</t>
+  </si>
+  <si>
+    <t>Radiotherapy with respiratory gating (regime/therapy)</t>
+  </si>
+  <si>
+    <t>USCRS-34882</t>
+  </si>
+  <si>
+    <t>Radiotherapy with abdominal compression (regime/therapy)</t>
   </si>
   <si>
     <t>13237009</t>
@@ -7036,22 +7036,22 @@
     <t>Radiotherapy course change due to acute radiotherapy toxicity (finding)</t>
   </si>
   <si>
-    <t>USCRS-2023-4_1</t>
-  </si>
-  <si>
-    <t>Radiotherapy with free-breathing (procedure)</t>
-  </si>
-  <si>
-    <t>USCRS-2023-4_2</t>
-  </si>
-  <si>
-    <t>Radiotherapy with breath-hold (procedure)</t>
-  </si>
-  <si>
-    <t>USCRS-2023-4_3</t>
-  </si>
-  <si>
-    <t>Radiotherapy without respiratory motion management (procedure)</t>
+    <t>USCRS-34883</t>
+  </si>
+  <si>
+    <t>Radiotherapy with free breathing (regime/therapy)</t>
+  </si>
+  <si>
+    <t>USCRS-34884</t>
+  </si>
+  <si>
+    <t>Radiotherapy with breath hold (regime/therapy)</t>
+  </si>
+  <si>
+    <t>USCRS-34886</t>
+  </si>
+  <si>
+    <t>Radiotherapy without respiratory motion management (regime/therapy)</t>
   </si>
   <si>
     <t>Reference to DICOM SOP Instance</t>
@@ -29880,7 +29880,7 @@
     <col min="1" max="1" width="65" style="1" customWidth="1"/>
     <col min="2" max="2" width="77" style="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="100" style="3" customWidth="1"/>
   </cols>
   <sheetData>
